--- a/Parameters table.xlsx
+++ b/Parameters table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szata\Codes\StoriesTeams\DispatchOptimisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E18A8C9-DF15-4CE8-82CF-59BC80035F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B03DF-7F87-4448-A8C8-B8F8A96531E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A72227BA-6150-4B49-869F-1EC4BCBCAEF0}"/>
   </bookViews>
@@ -4015,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{527FE52B-7FA6-496F-A853-FD43739BD9C1}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C26" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
